--- a/src/predicciones/holt_winters/producto_131.xlsx
+++ b/src/predicciones/holt_winters/producto_131.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1575 +404,937 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44936</v>
       </c>
       <c r="B2">
-        <v>1.486176982154463</v>
+        <v>1.26343959991378</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44939</v>
       </c>
       <c r="B3">
-        <v>1.372388131814269</v>
+        <v>1.253316225082052</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44943</v>
       </c>
       <c r="B4">
-        <v>1.274780795271467</v>
+        <v>1.186859308843383</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44944</v>
       </c>
       <c r="B5">
-        <v>1.144097252655339</v>
+        <v>1.049305316748792</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44946</v>
       </c>
       <c r="B6">
-        <v>1.207243843172996</v>
+        <v>1.147989030417688</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44953</v>
       </c>
       <c r="B7">
-        <v>1.382546189071591</v>
+        <v>1.026672352472087</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44958</v>
       </c>
       <c r="B8">
-        <v>1.10802574155263</v>
+        <v>1.09565430711579</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44963</v>
       </c>
       <c r="B9">
-        <v>1.480690887936738</v>
+        <v>1.263453584070222</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44971</v>
       </c>
       <c r="B10">
-        <v>1.366902037596543</v>
+        <v>1.253330209238495</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44972</v>
       </c>
       <c r="B11">
-        <v>1.269294701053742</v>
+        <v>1.186873292999825</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44973</v>
       </c>
       <c r="B12">
-        <v>1.138611158437614</v>
+        <v>1.049319300905235</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44981</v>
       </c>
       <c r="B13">
-        <v>1.201757748955271</v>
+        <v>1.148003014574131</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44982</v>
       </c>
       <c r="B14">
-        <v>1.377060094853866</v>
+        <v>1.026686336628529</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44984</v>
       </c>
       <c r="B15">
-        <v>1.102539647334905</v>
+        <v>1.095668291272234</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44987</v>
       </c>
       <c r="B16">
-        <v>1.475204793719013</v>
+        <v>1.263467568226665</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44990</v>
       </c>
       <c r="B17">
-        <v>1.361415943378818</v>
+        <v>1.253344193394938</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44993</v>
       </c>
       <c r="B18">
-        <v>1.263808606836017</v>
+        <v>1.186887277156268</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45008</v>
       </c>
       <c r="B19">
-        <v>1.133125064219889</v>
+        <v>1.049333285061677</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45010</v>
       </c>
       <c r="B20">
-        <v>1.196271654737546</v>
+        <v>1.148016998730574</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45020</v>
       </c>
       <c r="B21">
-        <v>1.371574000636141</v>
+        <v>1.026700320784972</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45026</v>
       </c>
       <c r="B22">
-        <v>1.097053553117179</v>
+        <v>1.095682275428676</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45029</v>
       </c>
       <c r="B23">
-        <v>1.469718699501288</v>
+        <v>1.263481552383108</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45031</v>
       </c>
       <c r="B24">
-        <v>1.355929849161093</v>
+        <v>1.25335817755138</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45041</v>
       </c>
       <c r="B25">
-        <v>1.258322512618292</v>
+        <v>1.186901261312711</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45043</v>
       </c>
       <c r="B26">
-        <v>1.127638970002164</v>
+        <v>1.04934726921812</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45045</v>
       </c>
       <c r="B27">
-        <v>1.190785560519821</v>
+        <v>1.148030982887017</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45056</v>
       </c>
       <c r="B28">
-        <v>1.366087906418416</v>
+        <v>1.026714304941415</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45059</v>
       </c>
       <c r="B29">
-        <v>1.091567458899454</v>
+        <v>1.095696259585119</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45065</v>
       </c>
       <c r="B30">
-        <v>1.464232605283563</v>
+        <v>1.263495536539551</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45068</v>
       </c>
       <c r="B31">
-        <v>1.350443754943368</v>
+        <v>1.253372161707824</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45073</v>
       </c>
       <c r="B32">
-        <v>1.252836418400567</v>
+        <v>1.186915245469154</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45083</v>
       </c>
       <c r="B33">
-        <v>1.122152875784439</v>
+        <v>1.049361253374563</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45084</v>
       </c>
       <c r="B34">
-        <v>1.185299466302095</v>
+        <v>1.14804496704346</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45086</v>
       </c>
       <c r="B35">
-        <v>1.360601812200691</v>
+        <v>1.026728289097858</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45096</v>
       </c>
       <c r="B36">
-        <v>1.086081364681729</v>
+        <v>1.095710243741562</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45102</v>
       </c>
       <c r="B37">
-        <v>1.458746511065838</v>
+        <v>1.263509520695994</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45113</v>
       </c>
       <c r="B38">
-        <v>1.344957660725643</v>
+        <v>1.253386145864266</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45116</v>
       </c>
       <c r="B39">
-        <v>1.247350324182842</v>
+        <v>1.186929229625597</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45118</v>
       </c>
       <c r="B40">
-        <v>1.116666781566714</v>
+        <v>1.049375237531006</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45126</v>
       </c>
       <c r="B41">
-        <v>1.17981337208437</v>
+        <v>1.148058951199903</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45128</v>
       </c>
       <c r="B42">
-        <v>1.355115717982966</v>
+        <v>1.026742273254301</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45129</v>
       </c>
       <c r="B43">
-        <v>1.080595270464004</v>
+        <v>1.095724227898005</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45131</v>
       </c>
       <c r="B44">
-        <v>1.453260416848112</v>
+        <v>1.263523504852437</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45136</v>
       </c>
       <c r="B45">
-        <v>1.339471566507918</v>
+        <v>1.253400130020709</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45138</v>
       </c>
       <c r="B46">
-        <v>1.241864229965117</v>
+        <v>1.18694321378204</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45139</v>
       </c>
       <c r="B47">
-        <v>1.111180687348989</v>
+        <v>1.049389221687449</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45148</v>
       </c>
       <c r="B48">
-        <v>1.174327277866645</v>
+        <v>1.148072935356345</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45154</v>
       </c>
       <c r="B49">
-        <v>1.349629623765241</v>
+        <v>1.026756257410744</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45163</v>
       </c>
       <c r="B50">
-        <v>1.075109176246279</v>
+        <v>1.095738212054448</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45167</v>
       </c>
       <c r="B51">
-        <v>1.447774322630387</v>
+        <v>1.26353748900888</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45171</v>
       </c>
       <c r="B52">
-        <v>1.333985472290193</v>
+        <v>1.253414114177152</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45174</v>
       </c>
       <c r="B53">
-        <v>1.236378135747392</v>
+        <v>1.186957197938483</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45179</v>
       </c>
       <c r="B54">
-        <v>1.105694593131264</v>
+        <v>1.049403205843892</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45180</v>
       </c>
       <c r="B55">
-        <v>1.16884118364892</v>
+        <v>1.148086919512788</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45183</v>
       </c>
       <c r="B56">
-        <v>1.344143529547515</v>
+        <v>1.026770241567187</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45190</v>
       </c>
       <c r="B57">
-        <v>1.069623082028554</v>
+        <v>1.095752196210891</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45191</v>
       </c>
       <c r="B58">
-        <v>1.442288228412662</v>
+        <v>1.263551473165323</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45198</v>
       </c>
       <c r="B59">
-        <v>1.328499378072468</v>
+        <v>1.253428098333595</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45199</v>
       </c>
       <c r="B60">
-        <v>1.230892041529667</v>
+        <v>1.186971182094926</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45203</v>
       </c>
       <c r="B61">
-        <v>1.100208498913539</v>
+        <v>1.049417190000335</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45204</v>
       </c>
       <c r="B62">
-        <v>1.163355089431195</v>
+        <v>1.148100903669231</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45222</v>
       </c>
       <c r="B63">
-        <v>1.33865743532979</v>
+        <v>1.02678422572363</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45223</v>
       </c>
       <c r="B64">
-        <v>1.064136987810829</v>
+        <v>1.095766180367334</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45228</v>
       </c>
       <c r="B65">
-        <v>1.436802134194937</v>
+        <v>1.263565457321765</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45238</v>
       </c>
       <c r="B66">
-        <v>1.323013283854743</v>
+        <v>1.253442082490038</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45239</v>
       </c>
       <c r="B67">
-        <v>1.225405947311941</v>
+        <v>1.186985166251369</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45241</v>
       </c>
       <c r="B68">
-        <v>1.094722404695814</v>
+        <v>1.049431174156778</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45243</v>
       </c>
       <c r="B69">
-        <v>1.15786899521347</v>
+        <v>1.148114887825674</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45244</v>
       </c>
       <c r="B70">
-        <v>1.333171341112065</v>
+        <v>1.026798209880073</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45246</v>
       </c>
       <c r="B71">
-        <v>1.058650893593104</v>
+        <v>1.095780164523777</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45247</v>
       </c>
       <c r="B72">
-        <v>1.431316039977212</v>
+        <v>1.263579441478208</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45249</v>
       </c>
       <c r="B73">
-        <v>1.317527189637018</v>
+        <v>1.253456066646481</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45253</v>
       </c>
       <c r="B74">
-        <v>1.219919853094216</v>
+        <v>1.186999150407811</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45261</v>
       </c>
       <c r="B75">
-        <v>1.089236310478088</v>
+        <v>1.049445158313221</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45262</v>
       </c>
       <c r="B76">
-        <v>1.152382900995745</v>
+        <v>1.148128871982117</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45267</v>
       </c>
       <c r="B77">
-        <v>1.32768524689434</v>
+        <v>1.026812194036516</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45277</v>
       </c>
       <c r="B78">
-        <v>1.053164799375379</v>
+        <v>1.09579414868022</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45281</v>
       </c>
       <c r="B79">
-        <v>1.425829945759487</v>
+        <v>1.263593425634651</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45286</v>
       </c>
       <c r="B80">
-        <v>1.312041095419292</v>
+        <v>1.253470050802924</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45290</v>
       </c>
       <c r="B81">
-        <v>1.214433758876491</v>
+        <v>1.187013134564254</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45294</v>
       </c>
       <c r="B82">
-        <v>1.083750216260363</v>
+        <v>1.049459142469664</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45310</v>
       </c>
       <c r="B83">
-        <v>1.14689680677802</v>
+        <v>1.14814285613856</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45317</v>
       </c>
       <c r="B84">
-        <v>1.322199152676615</v>
+        <v>1.026826178192958</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45319</v>
       </c>
       <c r="B85">
-        <v>1.047678705157653</v>
+        <v>1.095808132836662</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45331</v>
       </c>
       <c r="B86">
-        <v>1.420343851541762</v>
+        <v>1.263607409791094</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1.306555001201567</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1.208947664658766</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1.078264122042638</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>1.141410712560295</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1.31671305845889</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1.042192610939928</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1.414857757324037</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1.301068906983842</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.203461570441041</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.072778027824913</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>1.13592461834257</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1.311226964241165</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1.036706516722203</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.409371663106312</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1.295582812766117</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1.197975476223316</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1.067291933607188</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>1.130438524124844</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>1.30574087002344</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>1.031220422504478</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>1.403885568888587</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>1.290096718548392</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>1.192489382005591</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>1.061805839389463</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>1.124952429907119</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>1.300254775805715</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>1.025734328286753</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>1.398399474670861</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>1.284610624330667</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>1.187003287787866</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>1.056319745171738</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>1.119466335689394</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>1.294768681587989</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>1.020248234069028</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>1.392913380453136</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>1.279124530112942</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>1.181517193570141</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>1.050833650954013</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>1.113980241471669</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>1.289282587370264</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>1.014762139851303</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>1.387427286235411</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>1.273638435895217</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>1.176031099352415</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>1.045347556736288</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>1.108494147253944</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>1.283796493152539</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>1.009276045633578</v>
-      </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>1.381941192017686</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>1.268152341677492</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>1.17054500513469</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>1.039861462518562</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>1.103008053036219</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>1.278310398934814</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>1.003789951415853</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>1.376455097799961</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>1.262666247459767</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>1.165058910916965</v>
-      </c>
-      <c r="C144">
         <v>1</v>
       </c>
     </row>
